--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="297">
   <si>
     <t>Production Name:</t>
   </si>
@@ -914,13 +914,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1524,400 +1530,403 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2551,11 +2560,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155852288"/>
-        <c:axId val="185391872"/>
+        <c:axId val="149441536"/>
+        <c:axId val="144431872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155852288"/>
+        <c:axId val="149441536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2564,7 +2573,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="185391872"/>
+        <c:crossAx val="144431872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2572,7 +2581,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="185391872"/>
+        <c:axId val="144431872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2588,7 +2597,7 @@
             <a:noFill/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="155852288"/>
+        <c:crossAx val="149441536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2811,11 +2820,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156282368"/>
-        <c:axId val="156173440"/>
+        <c:axId val="149605888"/>
+        <c:axId val="149488768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156282368"/>
+        <c:axId val="149605888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2824,7 +2833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156173440"/>
+        <c:crossAx val="149488768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2832,7 +2841,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156173440"/>
+        <c:axId val="149488768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2843,7 +2852,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156282368"/>
+        <c:crossAx val="149605888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3067,11 +3076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156519936"/>
-        <c:axId val="156175744"/>
+        <c:axId val="150044160"/>
+        <c:axId val="149491072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156519936"/>
+        <c:axId val="150044160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3080,7 +3089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156175744"/>
+        <c:crossAx val="149491072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3088,7 +3097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156175744"/>
+        <c:axId val="149491072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +3108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156519936"/>
+        <c:crossAx val="150044160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3322,11 +3331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156769792"/>
-        <c:axId val="156178048"/>
+        <c:axId val="150494720"/>
+        <c:axId val="149493376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156769792"/>
+        <c:axId val="150494720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3335,7 +3344,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156178048"/>
+        <c:crossAx val="149493376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3343,7 +3352,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156178048"/>
+        <c:axId val="149493376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3354,7 +3363,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156769792"/>
+        <c:crossAx val="150494720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3395,7 +3404,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3438,7 +3447,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3479,7 +3488,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F9F86464-62E3-40C4-9822-D864B84BC108}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3522,7 +3531,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56958FC8-1E61-451B-8A5B-94AA5987CCE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3855,79 +3864,79 @@
   <sheetData>
     <row r="1" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:15" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="70"/>
-      <c r="M2" s="70"/>
-      <c r="N2" s="70"/>
-      <c r="O2" s="71"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="117"/>
     </row>
     <row r="3" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="118" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="119"/>
+      <c r="D3" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="121"/>
+      <c r="I3" s="122" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="78"/>
+      <c r="J3" s="123"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="124"/>
     </row>
     <row r="4" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="81" t="s">
+      <c r="C4" s="126"/>
+      <c r="D4" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="83" t="s">
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="128"/>
+      <c r="I4" s="75" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="84"/>
-      <c r="K4" s="84"/>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77"/>
     </row>
     <row r="5" spans="2:15" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="86" t="s">
+      <c r="B5" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88" t="s">
+      <c r="C5" s="130"/>
+      <c r="D5" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="89"/>
+      <c r="E5" s="131"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="132"/>
       <c r="I5" s="12" t="s">
         <v>69</v>
       </c>
@@ -3951,23 +3960,23 @@
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="91"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="91"/>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
-      <c r="H6" s="92"/>
-      <c r="I6" s="93" t="s">
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="94"/>
-      <c r="N6" s="94"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
       <c r="O6" s="22"/>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.2">
@@ -4070,14 +4079,14 @@
         <v>40</v>
       </c>
       <c r="H9" s="22"/>
-      <c r="I9" s="95" t="s">
+      <c r="I9" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="68"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="114"/>
       <c r="O9" s="22"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
@@ -4101,13 +4110,13 @@
       <c r="I10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J10" s="66" t="s">
+      <c r="J10" s="112" t="s">
         <v>89</v>
       </c>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="68"/>
+      <c r="K10" s="113"/>
+      <c r="L10" s="113"/>
+      <c r="M10" s="113"/>
+      <c r="N10" s="114"/>
       <c r="O10" s="22"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
@@ -4129,13 +4138,13 @@
       <c r="I11" s="13">
         <v>1</v>
       </c>
-      <c r="J11" s="99" t="s">
+      <c r="J11" s="96" t="s">
         <v>177</v>
       </c>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="100"/>
-      <c r="N11" s="101"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="97"/>
       <c r="O11" s="22"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
@@ -4156,14 +4165,14 @@
         <v>40</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="102" t="s">
+      <c r="I12" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="103"/>
-      <c r="K12" s="103"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
       <c r="O12" s="22"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
@@ -4304,58 +4313,58 @@
       <c r="H16" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="102" t="s">
+      <c r="I16" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="J16" s="103"/>
-      <c r="K16" s="103"/>
-      <c r="L16" s="103"/>
-      <c r="M16" s="103"/>
-      <c r="N16" s="103"/>
+      <c r="J16" s="71"/>
+      <c r="K16" s="71"/>
+      <c r="L16" s="71"/>
+      <c r="M16" s="71"/>
+      <c r="N16" s="71"/>
       <c r="O16" s="22"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="90" t="s">
+      <c r="B17" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="92"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="105"/>
       <c r="I17" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J17" s="103" t="s">
+      <c r="J17" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="103"/>
-      <c r="N17" s="103"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="71"/>
+      <c r="M17" s="71"/>
+      <c r="N17" s="71"/>
       <c r="O17" s="22"/>
     </row>
     <row r="18" spans="2:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="104" t="s">
+      <c r="B18" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108"/>
       <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="107" t="s">
+      <c r="J18" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
       <c r="O18" s="22"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.2">
@@ -4383,13 +4392,13 @@
       <c r="I19" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="107" t="s">
+      <c r="J19" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="107"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
       <c r="O19" s="22"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.2">
@@ -4415,14 +4424,14 @@
         <f>SUM(E20:G20)</f>
         <v>1</v>
       </c>
-      <c r="I20" s="108" t="s">
+      <c r="I20" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
-      <c r="M20" s="98"/>
-      <c r="N20" s="98"/>
+      <c r="J20" s="73"/>
+      <c r="K20" s="73"/>
+      <c r="L20" s="73"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
       <c r="O20" s="22"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
@@ -4544,31 +4553,31 @@
       </c>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B24" s="90" t="s">
+      <c r="B24" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="92"/>
-      <c r="I24" s="108" t="s">
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="81"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J24" s="98"/>
-      <c r="K24" s="98"/>
-      <c r="L24" s="98"/>
-      <c r="M24" s="98"/>
-      <c r="N24" s="98"/>
+      <c r="J24" s="73"/>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
       <c r="O24" s="22"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B25" s="96" t="s">
+      <c r="B25" s="102" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
+      <c r="C25" s="103"/>
+      <c r="D25" s="103"/>
       <c r="E25" s="11">
         <f>SUM(E28,E31,E34,E37)</f>
         <v>31</v>
@@ -4586,73 +4595,73 @@
       <c r="I25" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J25" s="98" t="s">
+      <c r="J25" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="K25" s="98"/>
-      <c r="L25" s="98"/>
-      <c r="M25" s="98"/>
-      <c r="N25" s="98"/>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+      <c r="N25" s="73"/>
       <c r="O25" s="22"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B26" s="112" t="s">
+      <c r="B26" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="114"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="100"/>
       <c r="I26" s="13">
         <v>1</v>
       </c>
-      <c r="J26" s="107" t="s">
+      <c r="J26" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
+      <c r="K26" s="69"/>
+      <c r="L26" s="69"/>
+      <c r="M26" s="69"/>
+      <c r="N26" s="69"/>
       <c r="O26" s="22"/>
     </row>
     <row r="27" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="115" t="s">
+      <c r="C27" s="89" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117" t="s">
+      <c r="D27" s="90"/>
+      <c r="E27" s="93" t="s">
         <v>291</v>
       </c>
-      <c r="F27" s="118"/>
-      <c r="G27" s="117" t="s">
+      <c r="F27" s="94"/>
+      <c r="G27" s="93" t="s">
         <v>167</v>
       </c>
-      <c r="H27" s="119"/>
+      <c r="H27" s="101"/>
       <c r="I27" s="14">
         <v>2</v>
       </c>
-      <c r="J27" s="120" t="s">
+      <c r="J27" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K27" s="120"/>
-      <c r="L27" s="120"/>
-      <c r="M27" s="120"/>
-      <c r="N27" s="120"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="67"/>
+      <c r="N27" s="67"/>
       <c r="O27" s="23"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B28" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="115" t="s">
+      <c r="C28" s="89" t="s">
         <v>115</v>
       </c>
-      <c r="D28" s="116"/>
+      <c r="D28" s="90"/>
       <c r="E28" s="10">
         <v>8</v>
       </c>
@@ -4666,26 +4675,26 @@
       <c r="H28" s="8">
         <v>31</v>
       </c>
-      <c r="I28" s="83" t="s">
+      <c r="I28" s="75" t="s">
         <v>113</v>
       </c>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
-      <c r="N28" s="84"/>
-      <c r="O28" s="85"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="77"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="92"/>
+      <c r="F29" s="92"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="92"/>
       <c r="I29" s="12" t="s">
         <v>69</v>
       </c>
@@ -4712,36 +4721,36 @@
       <c r="B30" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="99" t="s">
+      <c r="C30" s="96" t="s">
         <v>171</v>
       </c>
-      <c r="D30" s="101"/>
-      <c r="E30" s="117" t="s">
+      <c r="D30" s="97"/>
+      <c r="E30" s="93" t="s">
         <v>292</v>
       </c>
-      <c r="F30" s="118"/>
-      <c r="G30" s="117" t="s">
+      <c r="F30" s="94"/>
+      <c r="G30" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="H30" s="123"/>
-      <c r="I30" s="93" t="s">
+      <c r="H30" s="95"/>
+      <c r="I30" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J30" s="94"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
+      <c r="J30" s="68"/>
+      <c r="K30" s="68"/>
+      <c r="L30" s="68"/>
+      <c r="M30" s="68"/>
+      <c r="N30" s="68"/>
       <c r="O30" s="22"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="99" t="s">
+      <c r="C31" s="96" t="s">
         <v>172</v>
       </c>
-      <c r="D31" s="101"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="10">
         <v>7</v>
       </c>
@@ -4778,15 +4787,15 @@
       </c>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="122"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
-      <c r="G32" s="122"/>
-      <c r="H32" s="122"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="92"/>
+      <c r="F32" s="92"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="92"/>
       <c r="I32" s="13">
         <v>2</v>
       </c>
@@ -4813,36 +4822,36 @@
       <c r="B33" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="115" t="s">
+      <c r="C33" s="89" t="s">
         <v>173</v>
       </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="117" t="s">
+      <c r="D33" s="90"/>
+      <c r="E33" s="93" t="s">
         <v>293</v>
       </c>
-      <c r="F33" s="118"/>
-      <c r="G33" s="117" t="s">
+      <c r="F33" s="94"/>
+      <c r="G33" s="93" t="s">
         <v>169</v>
       </c>
-      <c r="H33" s="123"/>
-      <c r="I33" s="93" t="s">
+      <c r="H33" s="95"/>
+      <c r="I33" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
       <c r="O33" s="22"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B34" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="115" t="s">
+      <c r="C34" s="89" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="116"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="10">
         <v>4</v>
       </c>
@@ -4859,71 +4868,71 @@
       <c r="I34" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J34" s="94" t="s">
+      <c r="J34" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="94"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
       <c r="O34" s="22"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="91" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="92"/>
+      <c r="F35" s="92"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="92"/>
       <c r="I35" s="13">
         <v>1</v>
       </c>
-      <c r="J35" s="107" t="s">
+      <c r="J35" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="107"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="69"/>
       <c r="O35" s="22"/>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B36" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C36" s="115" t="s">
+      <c r="C36" s="89" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="117" t="s">
+      <c r="D36" s="90"/>
+      <c r="E36" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="F36" s="118"/>
-      <c r="G36" s="117" t="s">
+      <c r="F36" s="94"/>
+      <c r="G36" s="93" t="s">
         <v>170</v>
       </c>
-      <c r="H36" s="123"/>
-      <c r="I36" s="102" t="s">
+      <c r="H36" s="95"/>
+      <c r="I36" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="J36" s="103"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="103"/>
-      <c r="M36" s="103"/>
-      <c r="N36" s="103"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="71"/>
       <c r="O36" s="22"/>
     </row>
     <row r="37" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C37" s="124" t="s">
+      <c r="C37" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="125"/>
+      <c r="D37" s="79"/>
       <c r="E37" s="21">
         <v>12</v>
       </c>
@@ -4960,15 +4969,15 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B38" s="90" t="s">
+      <c r="B38" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="C38" s="91"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="126"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="82"/>
       <c r="I38" s="13">
         <v>2</v>
       </c>
@@ -4992,82 +5001,82 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B39" s="127" t="s">
+      <c r="B39" s="83" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="128"/>
-      <c r="D39" s="128"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="129"/>
-      <c r="I39" s="102" t="s">
+      <c r="C39" s="84"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
+      <c r="J39" s="71"/>
+      <c r="K39" s="71"/>
+      <c r="L39" s="71"/>
+      <c r="M39" s="71"/>
+      <c r="N39" s="71"/>
       <c r="O39" s="22"/>
     </row>
     <row r="40" spans="2:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="130" t="s">
+      <c r="B40" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="131"/>
-      <c r="D40" s="131"/>
-      <c r="E40" s="131"/>
-      <c r="F40" s="131"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="132"/>
+      <c r="C40" s="87"/>
+      <c r="D40" s="87"/>
+      <c r="E40" s="87"/>
+      <c r="F40" s="87"/>
+      <c r="G40" s="87"/>
+      <c r="H40" s="88"/>
       <c r="I40" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J40" s="103" t="s">
+      <c r="J40" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K40" s="103"/>
-      <c r="L40" s="103"/>
-      <c r="M40" s="103"/>
-      <c r="N40" s="103"/>
+      <c r="K40" s="71"/>
+      <c r="L40" s="71"/>
+      <c r="M40" s="71"/>
+      <c r="N40" s="71"/>
       <c r="O40" s="22"/>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I41" s="13">
         <v>1</v>
       </c>
-      <c r="J41" s="107" t="s">
+      <c r="J41" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="107"/>
-      <c r="N41" s="107"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
       <c r="O41" s="22"/>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I42" s="13">
         <v>2</v>
       </c>
-      <c r="J42" s="107" t="s">
+      <c r="J42" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
       <c r="O42" s="22"/>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I43" s="108" t="s">
+      <c r="I43" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="J43" s="98"/>
-      <c r="K43" s="98"/>
-      <c r="L43" s="98"/>
-      <c r="M43" s="98"/>
-      <c r="N43" s="98"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
       <c r="O43" s="22"/>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.2">
@@ -5140,65 +5149,65 @@
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="108" t="s">
+      <c r="I47" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J47" s="98"/>
-      <c r="K47" s="98"/>
-      <c r="L47" s="98"/>
-      <c r="M47" s="98"/>
-      <c r="N47" s="98"/>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
       <c r="O47" s="22"/>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="I48" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J48" s="98" t="s">
+      <c r="J48" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="K48" s="98"/>
-      <c r="L48" s="98"/>
-      <c r="M48" s="98"/>
-      <c r="N48" s="98"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
       <c r="O48" s="22"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="13">
         <v>1</v>
       </c>
-      <c r="J49" s="107" t="s">
+      <c r="J49" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="107"/>
-      <c r="N49" s="107"/>
+      <c r="K49" s="69"/>
+      <c r="L49" s="69"/>
+      <c r="M49" s="69"/>
+      <c r="N49" s="69"/>
       <c r="O49" s="22"/>
     </row>
     <row r="50" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I50" s="14">
         <v>2</v>
       </c>
-      <c r="J50" s="120" t="s">
+      <c r="J50" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K50" s="120"/>
-      <c r="L50" s="120"/>
-      <c r="M50" s="120"/>
-      <c r="N50" s="120"/>
+      <c r="K50" s="67"/>
+      <c r="L50" s="67"/>
+      <c r="M50" s="67"/>
+      <c r="N50" s="67"/>
       <c r="O50" s="23"/>
     </row>
     <row r="51" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I51" s="83" t="s">
+      <c r="I51" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="J51" s="84"/>
-      <c r="K51" s="84"/>
-      <c r="L51" s="84"/>
-      <c r="M51" s="84"/>
-      <c r="N51" s="84"/>
-      <c r="O51" s="85"/>
+      <c r="J51" s="76"/>
+      <c r="K51" s="76"/>
+      <c r="L51" s="76"/>
+      <c r="M51" s="76"/>
+      <c r="N51" s="76"/>
+      <c r="O51" s="77"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I52" s="12" t="s">
@@ -5224,14 +5233,14 @@
       </c>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I53" s="93" t="s">
+      <c r="I53" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J53" s="94"/>
-      <c r="K53" s="94"/>
-      <c r="L53" s="94"/>
-      <c r="M53" s="94"/>
-      <c r="N53" s="94"/>
+      <c r="J53" s="68"/>
+      <c r="K53" s="68"/>
+      <c r="L53" s="68"/>
+      <c r="M53" s="68"/>
+      <c r="N53" s="68"/>
       <c r="O53" s="26"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
@@ -5258,51 +5267,51 @@
       </c>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I55" s="93" t="s">
+      <c r="I55" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="J55" s="94"/>
-      <c r="K55" s="94"/>
-      <c r="L55" s="94"/>
-      <c r="M55" s="94"/>
-      <c r="N55" s="94"/>
+      <c r="J55" s="68"/>
+      <c r="K55" s="68"/>
+      <c r="L55" s="68"/>
+      <c r="M55" s="68"/>
+      <c r="N55" s="68"/>
       <c r="O55" s="22"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J56" s="94" t="s">
+      <c r="J56" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="K56" s="94"/>
-      <c r="L56" s="94"/>
-      <c r="M56" s="94"/>
-      <c r="N56" s="94"/>
+      <c r="K56" s="68"/>
+      <c r="L56" s="68"/>
+      <c r="M56" s="68"/>
+      <c r="N56" s="68"/>
       <c r="O56" s="22"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="13">
         <v>1</v>
       </c>
-      <c r="J57" s="107" t="s">
+      <c r="J57" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K57" s="107"/>
-      <c r="L57" s="107"/>
-      <c r="M57" s="107"/>
-      <c r="N57" s="107"/>
+      <c r="K57" s="69"/>
+      <c r="L57" s="69"/>
+      <c r="M57" s="69"/>
+      <c r="N57" s="69"/>
       <c r="O57" s="22"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I58" s="102" t="s">
+      <c r="I58" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="J58" s="103"/>
-      <c r="K58" s="103"/>
-      <c r="L58" s="103"/>
-      <c r="M58" s="103"/>
-      <c r="N58" s="103"/>
+      <c r="J58" s="71"/>
+      <c r="K58" s="71"/>
+      <c r="L58" s="71"/>
+      <c r="M58" s="71"/>
+      <c r="N58" s="71"/>
       <c r="O58" s="22"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
@@ -5329,51 +5338,51 @@
       </c>
     </row>
     <row r="60" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I60" s="102" t="s">
+      <c r="I60" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="J60" s="103"/>
-      <c r="K60" s="103"/>
-      <c r="L60" s="103"/>
-      <c r="M60" s="103"/>
-      <c r="N60" s="103"/>
+      <c r="J60" s="71"/>
+      <c r="K60" s="71"/>
+      <c r="L60" s="71"/>
+      <c r="M60" s="71"/>
+      <c r="N60" s="71"/>
       <c r="O60" s="22"/>
     </row>
     <row r="61" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I61" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J61" s="103" t="s">
+      <c r="J61" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="103"/>
-      <c r="L61" s="103"/>
-      <c r="M61" s="103"/>
-      <c r="N61" s="103"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
       <c r="O61" s="22"/>
     </row>
     <row r="62" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I62" s="13">
         <v>1</v>
       </c>
-      <c r="J62" s="107" t="s">
+      <c r="J62" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="K62" s="107"/>
-      <c r="L62" s="107"/>
-      <c r="M62" s="107"/>
-      <c r="N62" s="107"/>
+      <c r="K62" s="69"/>
+      <c r="L62" s="69"/>
+      <c r="M62" s="69"/>
+      <c r="N62" s="69"/>
       <c r="O62" s="22"/>
     </row>
     <row r="63" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I63" s="108" t="s">
+      <c r="I63" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="J63" s="98"/>
-      <c r="K63" s="98"/>
-      <c r="L63" s="98"/>
-      <c r="M63" s="98"/>
-      <c r="N63" s="98"/>
+      <c r="J63" s="73"/>
+      <c r="K63" s="73"/>
+      <c r="L63" s="73"/>
+      <c r="M63" s="73"/>
+      <c r="N63" s="73"/>
       <c r="O63" s="22"/>
     </row>
     <row r="64" spans="9:15" x14ac:dyDescent="0.2">
@@ -5423,65 +5432,65 @@
       </c>
     </row>
     <row r="66" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I66" s="108" t="s">
+      <c r="I66" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J66" s="98"/>
-      <c r="K66" s="98"/>
-      <c r="L66" s="98"/>
-      <c r="M66" s="98"/>
-      <c r="N66" s="98"/>
+      <c r="J66" s="73"/>
+      <c r="K66" s="73"/>
+      <c r="L66" s="73"/>
+      <c r="M66" s="73"/>
+      <c r="N66" s="73"/>
       <c r="O66" s="22"/>
     </row>
     <row r="67" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I67" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J67" s="98" t="s">
+      <c r="J67" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="K67" s="98"/>
-      <c r="L67" s="98"/>
-      <c r="M67" s="98"/>
-      <c r="N67" s="98"/>
+      <c r="K67" s="73"/>
+      <c r="L67" s="73"/>
+      <c r="M67" s="73"/>
+      <c r="N67" s="73"/>
       <c r="O67" s="22"/>
     </row>
     <row r="68" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I68" s="13">
         <v>1</v>
       </c>
-      <c r="J68" s="107" t="s">
+      <c r="J68" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="K68" s="107"/>
-      <c r="L68" s="107"/>
-      <c r="M68" s="107"/>
-      <c r="N68" s="107"/>
+      <c r="K68" s="69"/>
+      <c r="L68" s="69"/>
+      <c r="M68" s="69"/>
+      <c r="N68" s="69"/>
       <c r="O68" s="22"/>
     </row>
     <row r="69" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I69" s="14">
         <v>2</v>
       </c>
-      <c r="J69" s="120" t="s">
+      <c r="J69" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K69" s="120"/>
-      <c r="L69" s="120"/>
-      <c r="M69" s="120"/>
-      <c r="N69" s="120"/>
+      <c r="K69" s="67"/>
+      <c r="L69" s="67"/>
+      <c r="M69" s="67"/>
+      <c r="N69" s="67"/>
       <c r="O69" s="23"/>
     </row>
     <row r="70" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I70" s="83" t="s">
+      <c r="I70" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="J70" s="84"/>
-      <c r="K70" s="84"/>
-      <c r="L70" s="84"/>
-      <c r="M70" s="84"/>
-      <c r="N70" s="84"/>
-      <c r="O70" s="85"/>
+      <c r="J70" s="76"/>
+      <c r="K70" s="76"/>
+      <c r="L70" s="76"/>
+      <c r="M70" s="76"/>
+      <c r="N70" s="76"/>
+      <c r="O70" s="77"/>
     </row>
     <row r="71" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I71" s="12" t="s">
@@ -5507,14 +5516,14 @@
       </c>
     </row>
     <row r="72" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I72" s="93" t="s">
+      <c r="I72" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="J72" s="94"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
+      <c r="J72" s="68"/>
+      <c r="K72" s="68"/>
+      <c r="L72" s="68"/>
+      <c r="M72" s="68"/>
+      <c r="N72" s="68"/>
       <c r="O72" s="22"/>
     </row>
     <row r="73" spans="9:15" x14ac:dyDescent="0.2">
@@ -5585,51 +5594,51 @@
       </c>
     </row>
     <row r="76" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I76" s="93" t="s">
+      <c r="I76" s="74" t="s">
         <v>87</v>
       </c>
-      <c r="J76" s="94"/>
-      <c r="K76" s="94"/>
-      <c r="L76" s="94"/>
-      <c r="M76" s="94"/>
-      <c r="N76" s="94"/>
+      <c r="J76" s="68"/>
+      <c r="K76" s="68"/>
+      <c r="L76" s="68"/>
+      <c r="M76" s="68"/>
+      <c r="N76" s="68"/>
       <c r="O76" s="22"/>
     </row>
     <row r="77" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I77" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="J77" s="94" t="s">
+      <c r="J77" s="68" t="s">
         <v>89</v>
       </c>
-      <c r="K77" s="94"/>
-      <c r="L77" s="94"/>
-      <c r="M77" s="94"/>
-      <c r="N77" s="94"/>
+      <c r="K77" s="68"/>
+      <c r="L77" s="68"/>
+      <c r="M77" s="68"/>
+      <c r="N77" s="68"/>
       <c r="O77" s="22"/>
     </row>
     <row r="78" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I78" s="13">
         <v>1</v>
       </c>
-      <c r="J78" s="107" t="s">
+      <c r="J78" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="107"/>
-      <c r="N78" s="107"/>
+      <c r="K78" s="69"/>
+      <c r="L78" s="69"/>
+      <c r="M78" s="69"/>
+      <c r="N78" s="69"/>
       <c r="O78" s="22"/>
     </row>
     <row r="79" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I79" s="102" t="s">
+      <c r="I79" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="J79" s="103"/>
-      <c r="K79" s="103"/>
-      <c r="L79" s="103"/>
-      <c r="M79" s="103"/>
-      <c r="N79" s="103"/>
+      <c r="J79" s="71"/>
+      <c r="K79" s="71"/>
+      <c r="L79" s="71"/>
+      <c r="M79" s="71"/>
+      <c r="N79" s="71"/>
       <c r="O79" s="22"/>
     </row>
     <row r="80" spans="9:15" x14ac:dyDescent="0.2">
@@ -5679,64 +5688,64 @@
       </c>
     </row>
     <row r="82" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I82" s="102" t="s">
+      <c r="I82" s="70" t="s">
         <v>99</v>
       </c>
-      <c r="J82" s="103"/>
-      <c r="K82" s="103"/>
-      <c r="L82" s="103"/>
-      <c r="M82" s="103"/>
-      <c r="N82" s="103"/>
+      <c r="J82" s="71"/>
+      <c r="K82" s="71"/>
+      <c r="L82" s="71"/>
+      <c r="M82" s="71"/>
+      <c r="N82" s="71"/>
       <c r="O82" s="22"/>
     </row>
     <row r="83" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I83" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="J83" s="103" t="s">
+      <c r="J83" s="71" t="s">
         <v>89</v>
       </c>
-      <c r="K83" s="103"/>
-      <c r="L83" s="103"/>
-      <c r="M83" s="103"/>
-      <c r="N83" s="103"/>
+      <c r="K83" s="71"/>
+      <c r="L83" s="71"/>
+      <c r="M83" s="71"/>
+      <c r="N83" s="71"/>
       <c r="O83" s="22"/>
     </row>
     <row r="84" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I84" s="13">
         <v>1</v>
       </c>
-      <c r="J84" s="107" t="s">
+      <c r="J84" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="K84" s="107"/>
-      <c r="L84" s="107"/>
-      <c r="M84" s="107"/>
-      <c r="N84" s="107"/>
+      <c r="K84" s="69"/>
+      <c r="L84" s="69"/>
+      <c r="M84" s="69"/>
+      <c r="N84" s="69"/>
       <c r="O84" s="22"/>
     </row>
     <row r="85" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I85" s="13">
         <v>2</v>
       </c>
-      <c r="J85" s="107" t="s">
+      <c r="J85" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="K85" s="107"/>
-      <c r="L85" s="107"/>
-      <c r="M85" s="107"/>
-      <c r="N85" s="107"/>
+      <c r="K85" s="69"/>
+      <c r="L85" s="69"/>
+      <c r="M85" s="69"/>
+      <c r="N85" s="69"/>
       <c r="O85" s="22"/>
     </row>
     <row r="86" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I86" s="108" t="s">
+      <c r="I86" s="72" t="s">
         <v>102</v>
       </c>
-      <c r="J86" s="98"/>
-      <c r="K86" s="98"/>
-      <c r="L86" s="98"/>
-      <c r="M86" s="98"/>
-      <c r="N86" s="98"/>
+      <c r="J86" s="73"/>
+      <c r="K86" s="73"/>
+      <c r="L86" s="73"/>
+      <c r="M86" s="73"/>
+      <c r="N86" s="73"/>
       <c r="O86" s="22"/>
     </row>
     <row r="87" spans="9:15" x14ac:dyDescent="0.2">
@@ -5897,126 +5906,70 @@
       </c>
     </row>
     <row r="94" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I94" s="108" t="s">
+      <c r="I94" s="72" t="s">
         <v>109</v>
       </c>
-      <c r="J94" s="98"/>
-      <c r="K94" s="98"/>
-      <c r="L94" s="98"/>
-      <c r="M94" s="98"/>
-      <c r="N94" s="98"/>
+      <c r="J94" s="73"/>
+      <c r="K94" s="73"/>
+      <c r="L94" s="73"/>
+      <c r="M94" s="73"/>
+      <c r="N94" s="73"/>
       <c r="O94" s="22"/>
     </row>
     <row r="95" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I95" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="J95" s="98" t="s">
+      <c r="J95" s="73" t="s">
         <v>89</v>
       </c>
-      <c r="K95" s="98"/>
-      <c r="L95" s="98"/>
-      <c r="M95" s="98"/>
-      <c r="N95" s="98"/>
+      <c r="K95" s="73"/>
+      <c r="L95" s="73"/>
+      <c r="M95" s="73"/>
+      <c r="N95" s="73"/>
       <c r="O95" s="22"/>
     </row>
     <row r="96" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I96" s="13">
         <v>1</v>
       </c>
-      <c r="J96" s="107" t="s">
+      <c r="J96" s="69" t="s">
         <v>119</v>
       </c>
-      <c r="K96" s="107"/>
-      <c r="L96" s="107"/>
-      <c r="M96" s="107"/>
-      <c r="N96" s="107"/>
+      <c r="K96" s="69"/>
+      <c r="L96" s="69"/>
+      <c r="M96" s="69"/>
+      <c r="N96" s="69"/>
       <c r="O96" s="22"/>
     </row>
     <row r="97" spans="9:15" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="I97" s="14">
         <v>2</v>
       </c>
-      <c r="J97" s="120" t="s">
+      <c r="J97" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="K97" s="120"/>
-      <c r="L97" s="120"/>
-      <c r="M97" s="120"/>
-      <c r="N97" s="120"/>
+      <c r="K97" s="67"/>
+      <c r="L97" s="67"/>
+      <c r="M97" s="67"/>
+      <c r="N97" s="67"/>
       <c r="O97" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="96">
-    <mergeCell ref="J97:N97"/>
-    <mergeCell ref="J77:N77"/>
-    <mergeCell ref="J78:N78"/>
-    <mergeCell ref="I79:N79"/>
-    <mergeCell ref="I82:N82"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="I86:N86"/>
-    <mergeCell ref="I94:N94"/>
-    <mergeCell ref="J95:N95"/>
-    <mergeCell ref="J96:N96"/>
-    <mergeCell ref="I76:N76"/>
-    <mergeCell ref="I58:N58"/>
-    <mergeCell ref="I60:N60"/>
-    <mergeCell ref="J61:N61"/>
-    <mergeCell ref="J62:N62"/>
-    <mergeCell ref="I63:N63"/>
-    <mergeCell ref="I66:N66"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="J68:N68"/>
-    <mergeCell ref="J69:N69"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="I72:N72"/>
-    <mergeCell ref="J57:N57"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="I43:N43"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="J48:N48"/>
-    <mergeCell ref="J49:N49"/>
-    <mergeCell ref="J50:N50"/>
-    <mergeCell ref="I51:O51"/>
-    <mergeCell ref="I53:N53"/>
-    <mergeCell ref="I55:N55"/>
-    <mergeCell ref="J56:N56"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B38:H38"/>
-    <mergeCell ref="B39:H39"/>
-    <mergeCell ref="I39:N39"/>
-    <mergeCell ref="B40:H40"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="J34:N34"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="J35:N35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:N36"/>
-    <mergeCell ref="I33:N33"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="I28:O28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:N30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="B26:H26"/>
-    <mergeCell ref="J26:N26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="B6:H6"/>
+    <mergeCell ref="I6:N6"/>
+    <mergeCell ref="I9:N9"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="J25:N25"/>
     <mergeCell ref="J11:N11"/>
@@ -6031,19 +5984,75 @@
     <mergeCell ref="B23:H23"/>
     <mergeCell ref="B24:H24"/>
     <mergeCell ref="I24:N24"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:H4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:H5"/>
-    <mergeCell ref="B6:H6"/>
-    <mergeCell ref="I6:N6"/>
-    <mergeCell ref="I9:N9"/>
+    <mergeCell ref="B26:H26"/>
+    <mergeCell ref="J26:N26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="J27:N27"/>
+    <mergeCell ref="I33:N33"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="I28:O28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:N30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="J34:N34"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="J35:N35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="I36:N36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B38:H38"/>
+    <mergeCell ref="B39:H39"/>
+    <mergeCell ref="I39:N39"/>
+    <mergeCell ref="B40:H40"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J57:N57"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="I43:N43"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="J48:N48"/>
+    <mergeCell ref="J49:N49"/>
+    <mergeCell ref="J50:N50"/>
+    <mergeCell ref="I51:O51"/>
+    <mergeCell ref="I53:N53"/>
+    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="J56:N56"/>
+    <mergeCell ref="I76:N76"/>
+    <mergeCell ref="I58:N58"/>
+    <mergeCell ref="I60:N60"/>
+    <mergeCell ref="J61:N61"/>
+    <mergeCell ref="J62:N62"/>
+    <mergeCell ref="I63:N63"/>
+    <mergeCell ref="I66:N66"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="J68:N68"/>
+    <mergeCell ref="J69:N69"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="I72:N72"/>
+    <mergeCell ref="J97:N97"/>
+    <mergeCell ref="J77:N77"/>
+    <mergeCell ref="J78:N78"/>
+    <mergeCell ref="I79:N79"/>
+    <mergeCell ref="I82:N82"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="I94:N94"/>
+    <mergeCell ref="J95:N95"/>
+    <mergeCell ref="J96:N96"/>
   </mergeCells>
   <conditionalFormatting sqref="H20:H22">
     <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
@@ -6075,7 +6084,7 @@
   <dimension ref="B1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6095,51 +6104,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="134" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="136"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="H3" s="83" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="H3" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -6231,10 +6240,18 @@
       <c r="N5" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
+      <c r="O5" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P5" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q5" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R5" s="138" t="s">
+        <v>229</v>
+      </c>
       <c r="S5" s="43" t="s">
         <v>235</v>
       </c>
@@ -6276,10 +6293,18 @@
       <c r="N6" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="30"/>
+      <c r="O6" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P6" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q6" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R6" s="138" t="s">
+        <v>229</v>
+      </c>
       <c r="S6" s="43" t="s">
         <v>234</v>
       </c>
@@ -6321,19 +6346,27 @@
       <c r="N7" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="30"/>
+      <c r="O7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="P7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q7" s="138" t="s">
+        <v>229</v>
+      </c>
+      <c r="R7" s="138" t="s">
+        <v>229</v>
+      </c>
       <c r="S7" s="43" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="136"/>
+      <c r="C8" s="137"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -6364,16 +6397,16 @@
       <c r="N8" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="O8" s="137" t="s">
+      <c r="O8" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="P8" s="137" t="s">
+      <c r="P8" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="Q8" s="137" t="s">
+      <c r="Q8" s="66" t="s">
         <v>229</v>
       </c>
-      <c r="R8" s="137" t="s">
+      <c r="R8" s="66" t="s">
         <v>229</v>
       </c>
       <c r="S8" s="43" t="s">
@@ -6516,10 +6549,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -6756,10 +6789,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="77"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -6934,14 +6967,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -7221,51 +7254,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="134" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="136"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="137"/>
+      <c r="D3" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="H3" s="83" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="H3" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -7456,10 +7489,10 @@
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -7634,10 +7667,10 @@
       </c>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="41" t="s">
         <v>24</v>
       </c>
@@ -7878,10 +7911,10 @@
       </c>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="77"/>
       <c r="H18" s="47"/>
       <c r="I18" s="30"/>
       <c r="J18" s="30"/>
@@ -7976,14 +8009,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
@@ -8263,51 +8296,51 @@
   <sheetData>
     <row r="1" spans="2:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="134" t="s">
         <v>295</v>
       </c>
-      <c r="C2" s="134"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="134"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="134"/>
-      <c r="L2" s="134"/>
-      <c r="M2" s="134"/>
-      <c r="N2" s="134"/>
-      <c r="O2" s="134"/>
-      <c r="P2" s="134"/>
-      <c r="Q2" s="134"/>
-      <c r="R2" s="134"/>
-      <c r="S2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="135"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="135"/>
+      <c r="I2" s="135"/>
+      <c r="J2" s="135"/>
+      <c r="K2" s="135"/>
+      <c r="L2" s="135"/>
+      <c r="M2" s="135"/>
+      <c r="N2" s="135"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="135"/>
+      <c r="Q2" s="135"/>
+      <c r="R2" s="135"/>
+      <c r="S2" s="136"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="83" t="s">
+      <c r="B3" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="83" t="s">
+      <c r="C3" s="77"/>
+      <c r="D3" s="75" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="84"/>
-      <c r="F3" s="85"/>
-      <c r="H3" s="83" t="s">
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
+      <c r="H3" s="75" t="s">
         <v>218</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="84"/>
-      <c r="P3" s="84"/>
-      <c r="Q3" s="84"/>
-      <c r="R3" s="84"/>
-      <c r="S3" s="85"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="76"/>
+      <c r="R3" s="76"/>
+      <c r="S3" s="77"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="42" t="s">
@@ -8456,10 +8489,10 @@
       <c r="S7" s="43"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B8" s="83" t="s">
+      <c r="B8" s="75" t="s">
         <v>182</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="47" t="s">
         <v>16</v>
       </c>
@@ -8586,10 +8619,10 @@
       <c r="S11" s="43"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="83" t="s">
+      <c r="B12" s="75" t="s">
         <v>186</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="47" t="s">
         <v>24</v>
       </c>
@@ -8746,10 +8779,10 @@
       <c r="S17" s="43"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="75" t="s">
         <v>193</v>
       </c>
-      <c r="C18" s="85"/>
+      <c r="C18" s="77"/>
       <c r="H18" s="47" t="s">
         <v>259</v>
       </c>
@@ -8864,14 +8897,14 @@
       <c r="S22" s="46"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B23" s="83" t="s">
+      <c r="B23" s="75" t="s">
         <v>206</v>
       </c>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="84"/>
-      <c r="F23" s="84"/>
-      <c r="G23" s="85"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">

--- a/Management/Production_Progress_Oct_2017.xlsx
+++ b/Management/Production_Progress_Oct_2017.xlsx
@@ -6084,7 +6084,7 @@
   <dimension ref="B1:S31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
